--- a/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20141201_JankowskiB.xlsx
+++ b/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20141201_JankowskiB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="77">
   <si>
     <t>SampleName</t>
   </si>
@@ -192,67 +192,64 @@
     <t>F3-E-14-T45</t>
   </si>
   <si>
-    <t>XX-A-YY-T0</t>
-  </si>
-  <si>
-    <t>XX-A-YY-T15</t>
-  </si>
-  <si>
-    <t>XX-A-YY-T30</t>
-  </si>
-  <si>
-    <t>XX-A-YY-T45</t>
-  </si>
-  <si>
-    <t>XX-B-YY-T0</t>
-  </si>
-  <si>
-    <t>XX-B-YY-T15</t>
-  </si>
-  <si>
-    <t>XX-B-YY-T30</t>
-  </si>
-  <si>
-    <t>XX-B-YY-T45</t>
-  </si>
-  <si>
-    <t>XX-C-YY-T0</t>
-  </si>
-  <si>
-    <t>XX-C-YY-T15</t>
-  </si>
-  <si>
-    <t>XX-C-YY-T30</t>
-  </si>
-  <si>
-    <t>XX-C-YY-T45</t>
-  </si>
-  <si>
-    <t>XX-D-YY-T0</t>
-  </si>
-  <si>
-    <t>XX-D-YY-T15</t>
-  </si>
-  <si>
-    <t>XX-D-YY-T30</t>
-  </si>
-  <si>
-    <t>XX-D-YY-T45</t>
-  </si>
-  <si>
-    <t>XX-E-YY-T0</t>
-  </si>
-  <si>
-    <t>XX-E-YY-T15</t>
-  </si>
-  <si>
-    <t>XX-E-YY-T30</t>
-  </si>
-  <si>
-    <t>XX-E-YY-T45</t>
-  </si>
-  <si>
-    <t>YY</t>
+    <t>S3-A-14-T0</t>
+  </si>
+  <si>
+    <t>S3-A-14-T15</t>
+  </si>
+  <si>
+    <t>S3-A-14-T30</t>
+  </si>
+  <si>
+    <t>S3-A-14-T45</t>
+  </si>
+  <si>
+    <t>S3-B-14-T0</t>
+  </si>
+  <si>
+    <t>S3-B-14-T15</t>
+  </si>
+  <si>
+    <t>S3-B-14-T30</t>
+  </si>
+  <si>
+    <t>S3-B-14-T45</t>
+  </si>
+  <si>
+    <t>S3-C-14-T0</t>
+  </si>
+  <si>
+    <t>S3-C-14-T15</t>
+  </si>
+  <si>
+    <t>S3-C-14-T30</t>
+  </si>
+  <si>
+    <t>S3-C-14-T45</t>
+  </si>
+  <si>
+    <t>S3-D-14-T0</t>
+  </si>
+  <si>
+    <t>S3-D-14-T15</t>
+  </si>
+  <si>
+    <t>S3-D-14-T30</t>
+  </si>
+  <si>
+    <t>S3-D-14-T45</t>
+  </si>
+  <si>
+    <t>S3-E-14-T0</t>
+  </si>
+  <si>
+    <t>S3-E-14-T15</t>
+  </si>
+  <si>
+    <t>S3-E-14-T30</t>
+  </si>
+  <si>
+    <t>S3-E-14-T45</t>
   </si>
 </sst>
 </file>
@@ -289,18 +286,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -312,7 +303,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="307">
+  <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,15 +611,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="307">
+  <cellStyles count="311">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -782,6 +776,8 @@
     <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -935,6 +931,8 @@
     <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2147,19 +2145,19 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="2"/>
@@ -2184,19 +2182,19 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
@@ -2221,19 +2219,19 @@
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -2258,19 +2256,19 @@
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
@@ -2295,19 +2293,19 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
@@ -2332,19 +2330,19 @@
       <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
@@ -2369,19 +2367,19 @@
       <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
@@ -2406,19 +2404,19 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
@@ -2443,19 +2441,19 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
@@ -2480,19 +2478,19 @@
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
@@ -2517,19 +2515,19 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
@@ -2554,19 +2552,19 @@
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
@@ -2591,19 +2589,19 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
@@ -2628,19 +2626,19 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
@@ -2665,19 +2663,19 @@
       <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
@@ -2702,19 +2700,19 @@
       <c r="C41" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
@@ -2739,19 +2737,19 @@
       <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
@@ -2776,19 +2774,19 @@
       <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
@@ -2813,19 +2811,19 @@
       <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
@@ -2850,19 +2848,19 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>XX</v>
+        <v>S3</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
